--- a/Resources/1998/Advanced_Percentile_1998.xlsx
+++ b/Resources/1998/Advanced_Percentile_1998.xlsx
@@ -1372,34 +1372,34 @@
     <t>wolfjo01</t>
   </si>
   <si>
-    <t>Karl Malone*</t>
-  </si>
-  <si>
-    <t>David Robinson*</t>
-  </si>
-  <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Karl Malone</t>
+  </si>
+  <si>
+    <t>David Robinson</t>
+  </si>
+  <si>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Tim Duncan</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
-  </si>
-  <si>
-    <t>Michael Jordan*</t>
-  </si>
-  <si>
-    <t>Alonzo Mourning*</t>
-  </si>
-  <si>
-    <t>Arvydas Sabonis*</t>
-  </si>
-  <si>
-    <t>Gary Payton*</t>
-  </si>
-  <si>
-    <t>Mitch Richmond*</t>
+    <t>Reggie Miller</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>Alonzo Mourning</t>
+  </si>
+  <si>
+    <t>Arvydas Sabonis</t>
+  </si>
+  <si>
+    <t>Gary Payton</t>
+  </si>
+  <si>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>Vin Baker</t>
@@ -1414,7 +1414,7 @@
     <t>Tim Hardaway</t>
   </si>
   <si>
-    <t>Charles Barkley*</t>
+    <t>Charles Barkley</t>
   </si>
   <si>
     <t>Jeff Hornacek</t>
@@ -1423,7 +1423,7 @@
     <t>Sam Cassell</t>
   </si>
   <si>
-    <t>Scottie Pippen*</t>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Zydrunas Ilgauskas</t>
@@ -1432,19 +1432,19 @@
     <t>Detlef Schrempf</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
-  </si>
-  <si>
-    <t>John Stockton*</t>
+    <t>Allen Iverson</t>
+  </si>
+  <si>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Danny Manning</t>
   </si>
   <si>
-    <t>Patrick Ewing*</t>
-  </si>
-  <si>
-    <t>Grant Hill*</t>
+    <t>Patrick Ewing</t>
+  </si>
+  <si>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Shareef Abdur-Rahim</t>
@@ -1465,10 +1465,10 @@
     <t>Glen Rice</t>
   </si>
   <si>
-    <t>Clyde Drexler*</t>
-  </si>
-  <si>
-    <t>Chris Mullin*</t>
+    <t>Clyde Drexler</t>
+  </si>
+  <si>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Kobe Bryant</t>
@@ -1489,7 +1489,7 @@
     <t>Nick Anderson</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Tracy Murray</t>
@@ -1498,7 +1498,7 @@
     <t>Dana Barros</t>
   </si>
   <si>
-    <t>Hakeem Olajuwon*</t>
+    <t>Hakeem Olajuwon</t>
   </si>
   <si>
     <t>Cedric Ceballos</t>
@@ -1534,7 +1534,7 @@
     <t>Kerry Kittles</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Willie Burton</t>
@@ -1597,7 +1597,7 @@
     <t>Jerry Stackhouse</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Marty Conlon</t>
@@ -1711,7 +1711,7 @@
     <t>Gary Trent</t>
   </si>
   <si>
-    <t>Joe Dumars*</t>
+    <t>Joe Dumars</t>
   </si>
   <si>
     <t>Kevin Johnson</t>
@@ -1738,7 +1738,7 @@
     <t>Rodney Rogers</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Steve Henson</t>
@@ -1831,7 +1831,7 @@
     <t>Donyell Marshall</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Eldridge Recasner</t>
@@ -2095,7 +2095,7 @@
     <t>Ben Wallace</t>
   </si>
   <si>
-    <t>Dennis Rodman*</t>
+    <t>Dennis Rodman</t>
   </si>
   <si>
     <t>DeJuan Wheat</t>
